--- a/excel/finished/焦化12/CK12-炼焦-2#焦炉加热制度报表(日) .xlsx
+++ b/excel/finished/焦化12/CK12-炼焦-2#焦炉加热制度报表(日) .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">2# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -360,13 +360,13 @@
     <t>CK12_L1R_CI_22TE1306BGasCollector_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L1R_CI_22PT1211BGasCollector_1m_avg</t>
+    <t>CK12_L1R_CI_22PT1311BGasCollector_1m_avg</t>
   </si>
   <si>
     <t>CK12_L1R_CI_22TE1306AGasCollector_1m_avg</t>
   </si>
   <si>
-    <t>CK12_L1R_CI_22PT1211AGasCollector_1m_avg</t>
+    <t>CK12_L1R_CI_22PT1311AGasCollector_1m_avg</t>
   </si>
   <si>
     <t>CK12_L1R_CI_22PT1308AStdRgPusherSide_1m_avg</t>
@@ -567,6 +567,12 @@
       </rPr>
       <t>接班：</t>
     </r>
+  </si>
+  <si>
+    <t>CK12_L1R_CI_22PT1211BGasCollector_1m_avg</t>
+  </si>
+  <si>
+    <t>CK12_L1R_CI_22PT1211AGasCollector_1m_avg</t>
   </si>
   <si>
     <t>version</t>
@@ -2220,7 +2226,7 @@
     <col min="38" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row ht="24" r="1">
+    <row ht="19.5" r="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2830,7 @@
       </c>
       <c r="AV7" s="27"/>
     </row>
-    <row ht="39" customHeight="1" hidden="1" r="8">
+    <row ht="39" customHeight="1" r="8">
       <c r="B8" s="21" t="s">
         <v>95</v>
       </c>
@@ -13087,13 +13093,13 @@
         <v>72</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Y1" s="23" t="s">
         <v>74</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="23" t="s">
         <v>76</v>
@@ -13187,7 +13193,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0">
         <v>12</v>
@@ -13211,7 +13217,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0">
         <v>6</v>
